--- a/files/reports/2021-10-18/resources-report.xlsx
+++ b/files/reports/2021-10-18/resources-report.xlsx
@@ -953,13 +953,13 @@
         <v>136</v>
       </c>
       <c r="F14">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1">
-        <v>0.7794</v>
+        <v>0.8088</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1135,13 +1135,13 @@
         <v>550</v>
       </c>
       <c r="F21">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G21">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H21" s="1">
-        <v>0.2073</v>
+        <v>0.2109</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1317,13 +1317,13 @@
         <v>444</v>
       </c>
       <c r="F28">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G28">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H28" s="1">
-        <v>0.232</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1603,13 +1603,13 @@
         <v>776</v>
       </c>
       <c r="F39">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G39">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H39" s="1">
-        <v>0.2861</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2018,13 +2018,13 @@
         <v>1390</v>
       </c>
       <c r="F56">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="G56">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H56" s="1">
-        <v>0.8662</v>
+        <v>0.8691</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2052,13 +2052,13 @@
         <v>10638</v>
       </c>
       <c r="F58">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="G58">
-        <v>9759</v>
+        <v>9741</v>
       </c>
       <c r="H58" s="1">
-        <v>0.08260000000000001</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="59" spans="1:8">
